--- a/docs/enemy_appear.xlsx
+++ b/docs/enemy_appear.xlsx
@@ -1428,9 +1428,9 @@
     <col min="4" max="4" width="2.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="2.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="3.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="3.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="2.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.625" style="1" customWidth="1"/>
@@ -1541,35 +1541,19 @@
         <v>2</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="F3" s="5">
         <v>100</v>
       </c>
-      <c r="G3" s="5">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5">
-        <v>100</v>
-      </c>
-      <c r="I3" s="5">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>4</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>5</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="3">
@@ -1586,35 +1570,23 @@
         <v>3</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="F4" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="H4" s="5">
         <v>100</v>
       </c>
-      <c r="I4" s="5">
-        <v>3</v>
-      </c>
-      <c r="J4" s="5">
-        <v>100</v>
-      </c>
-      <c r="K4" s="5">
-        <v>4</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>5</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="3">
@@ -1631,35 +1603,27 @@
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="F5" s="5">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G5" s="5">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="H5" s="5">
         <v>100</v>
       </c>
       <c r="I5" s="5">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="J5" s="5">
         <v>100</v>
       </c>
-      <c r="K5" s="5">
-        <v>4</v>
-      </c>
-      <c r="L5" s="5">
-        <v>100</v>
-      </c>
-      <c r="M5" s="5">
-        <v>5</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="3">

--- a/docs/enemy_appear.xlsx
+++ b/docs/enemy_appear.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>WORKER_ANT</t>
+  </si>
+  <si>
+    <t>BEE</t>
   </si>
 </sst>
 </file>
@@ -1426,11 +1435,11 @@
     <col min="2" max="2" width="5.13281" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.13281" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.67969" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="3.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6875" style="1" customWidth="1"/>
     <col min="10" max="10" width="3.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="2.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.625" style="1" customWidth="1"/>
@@ -1540,8 +1549,8 @@
       <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
-        <v>86</v>
+      <c r="E3" t="s" s="4">
+        <v>15</v>
       </c>
       <c r="F3" s="5">
         <v>100</v>
@@ -1569,14 +1578,14 @@
       <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
-        <v>86</v>
+      <c r="E4" t="s" s="4">
+        <v>15</v>
       </c>
       <c r="F4" s="5">
         <v>50</v>
       </c>
-      <c r="G4" s="5">
-        <v>111</v>
+      <c r="G4" t="s" s="4">
+        <v>16</v>
       </c>
       <c r="H4" s="5">
         <v>100</v>
@@ -1602,20 +1611,20 @@
       <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
-        <v>86</v>
+      <c r="E5" t="s" s="4">
+        <v>15</v>
       </c>
       <c r="F5" s="5">
         <v>25</v>
       </c>
-      <c r="G5" s="5">
-        <v>111</v>
+      <c r="G5" t="s" s="4">
+        <v>16</v>
       </c>
       <c r="H5" s="5">
         <v>100</v>
       </c>
-      <c r="I5" s="5">
-        <v>110</v>
+      <c r="I5" t="s" s="4">
+        <v>17</v>
       </c>
       <c r="J5" s="5">
         <v>100</v>

--- a/docs/enemy_appear.xlsx
+++ b/docs/enemy_appear.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId4"/>
+    <sheet name="enemy_appear" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
